--- a/Node/webScrapping/espn_scrapper/IPL/Royal Challengers Bangalore/Washington Sundar .xlsx
+++ b/Node/webScrapping/espn_scrapper/IPL/Royal Challengers Bangalore/Washington Sundar .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,13 +439,13 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v xml:space="preserve"> Oct 25 2020</v>
+        <v xml:space="preserve"> Oct 10 2020</v>
       </c>
       <c r="B2" t="str">
         <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
       <c r="C2" t="str">
-        <v>Super Kings won by 8 wickets (with 8 balls remaining)</v>
+        <v>RCB won by 37 runs</v>
       </c>
       <c r="D2" t="str">
         <v>Royal Challengers Bangalore</v>
@@ -457,234 +457,24 @@
         <v xml:space="preserve">Washington Sundar </v>
       </c>
       <c r="G2" t="str">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H2" t="str">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I2" t="str">
+        <v>0</v>
+      </c>
+      <c r="J2" t="str">
         <v>1</v>
       </c>
-      <c r="J2" t="str">
-        <v>0</v>
-      </c>
       <c r="K2" t="str">
-        <v>250.00</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v xml:space="preserve"> Nov 2 2020</v>
-      </c>
-      <c r="B3" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
-      </c>
-      <c r="C3" t="str">
-        <v>Capitals won by 6 wickets (with 6 balls remaining)</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Royal Challengers Bangalore</v>
-      </c>
-      <c r="E3" t="str">
-        <v>Delhi Capitals</v>
-      </c>
-      <c r="F3" t="str">
-        <v xml:space="preserve">Washington Sundar </v>
-      </c>
-      <c r="G3" t="str">
-        <v>0</v>
-      </c>
-      <c r="H3" t="str">
-        <v>1</v>
-      </c>
-      <c r="I3" t="str">
-        <v>0</v>
-      </c>
-      <c r="J3" t="str">
-        <v>0</v>
-      </c>
-      <c r="K3" t="str">
-        <v>0.00</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v xml:space="preserve"> Oct 28 2020</v>
-      </c>
-      <c r="B4" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
-      </c>
-      <c r="C4" t="str">
-        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Royal Challengers Bangalore</v>
-      </c>
-      <c r="E4" t="str">
-        <v>Mumbai Indians</v>
-      </c>
-      <c r="F4" t="str">
-        <v xml:space="preserve">Washington Sundar </v>
-      </c>
-      <c r="G4" t="str">
-        <v>10</v>
-      </c>
-      <c r="H4" t="str">
-        <v>6</v>
-      </c>
-      <c r="I4" t="str">
-        <v>1</v>
-      </c>
-      <c r="J4" t="str">
-        <v>0</v>
-      </c>
-      <c r="K4" t="str">
-        <v>166.66</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v xml:space="preserve"> Oct 31 2020</v>
-      </c>
-      <c r="B5" t="str">
-        <v xml:space="preserve"> Sharjah</v>
-      </c>
-      <c r="C5" t="str">
-        <v>Sunrisers won by 5 wickets (with 35 balls remaining)</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Royal Challengers Bangalore</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Sunrisers Hyderabad</v>
-      </c>
-      <c r="F5" t="str">
-        <v xml:space="preserve">Washington Sundar </v>
-      </c>
-      <c r="G5" t="str">
-        <v>21</v>
-      </c>
-      <c r="H5" t="str">
-        <v>18</v>
-      </c>
-      <c r="I5" t="str">
-        <v>2</v>
-      </c>
-      <c r="J5" t="str">
-        <v>0</v>
-      </c>
-      <c r="K5" t="str">
-        <v>116.66</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v xml:space="preserve"> Oct 15 2020</v>
-      </c>
-      <c r="B6" t="str">
-        <v xml:space="preserve"> Sharjah</v>
-      </c>
-      <c r="C6" t="str">
-        <v>Kings XI won by 8 wickets</v>
-      </c>
-      <c r="D6" t="str">
-        <v>Royal Challengers Bangalore</v>
-      </c>
-      <c r="E6" t="str">
-        <v>Kings XI Punjab</v>
-      </c>
-      <c r="F6" t="str">
-        <v xml:space="preserve">Washington Sundar </v>
-      </c>
-      <c r="G6" t="str">
-        <v>13</v>
-      </c>
-      <c r="H6" t="str">
-        <v>14</v>
-      </c>
-      <c r="I6" t="str">
-        <v>1</v>
-      </c>
-      <c r="J6" t="str">
-        <v>0</v>
-      </c>
-      <c r="K6" t="str">
-        <v>92.85</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v xml:space="preserve"> Nov 6 2020</v>
-      </c>
-      <c r="B7" t="str">
-        <v xml:space="preserve"> Abu Dhabi</v>
-      </c>
-      <c r="C7" t="str">
-        <v>Sunrisers won by 6 wickets (with 2 balls remaining)</v>
-      </c>
-      <c r="D7" t="str">
-        <v>Royal Challengers Bangalore</v>
-      </c>
-      <c r="E7" t="str">
-        <v>Sunrisers Hyderabad</v>
-      </c>
-      <c r="F7" t="str">
-        <v xml:space="preserve">Washington Sundar </v>
-      </c>
-      <c r="G7" t="str">
-        <v>5</v>
-      </c>
-      <c r="H7" t="str">
-        <v>6</v>
-      </c>
-      <c r="I7" t="str">
-        <v>0</v>
-      </c>
-      <c r="J7" t="str">
-        <v>0</v>
-      </c>
-      <c r="K7" t="str">
-        <v>83.33</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v xml:space="preserve"> Oct 10 2020</v>
-      </c>
-      <c r="B8" t="str">
-        <v xml:space="preserve"> Dubai (DSC)</v>
-      </c>
-      <c r="C8" t="str">
-        <v>RCB won by 37 runs</v>
-      </c>
-      <c r="D8" t="str">
-        <v>Royal Challengers Bangalore</v>
-      </c>
-      <c r="E8" t="str">
-        <v>Chennai Super Kings</v>
-      </c>
-      <c r="F8" t="str">
-        <v xml:space="preserve">Washington Sundar </v>
-      </c>
-      <c r="G8" t="str">
-        <v>10</v>
-      </c>
-      <c r="H8" t="str">
-        <v>10</v>
-      </c>
-      <c r="I8" t="str">
-        <v>0</v>
-      </c>
-      <c r="J8" t="str">
-        <v>1</v>
-      </c>
-      <c r="K8" t="str">
         <v>100.00</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K8"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/Node/webScrapping/espn_scrapper/IPL/Royal Challengers Bangalore/Washington Sundar .xlsx
+++ b/Node/webScrapping/espn_scrapper/IPL/Royal Challengers Bangalore/Washington Sundar .xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -439,42 +439,322 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v xml:space="preserve"> Nov 2 2020</v>
+      </c>
+      <c r="B2" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C2" t="str">
+        <v>Capitals won by 6 wickets (with 6 balls remaining)</v>
+      </c>
+      <c r="D2" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="E2" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="F2" t="str">
+        <v xml:space="preserve">Washington Sundar </v>
+      </c>
+      <c r="G2" t="str">
+        <v>0</v>
+      </c>
+      <c r="H2" t="str">
+        <v>1</v>
+      </c>
+      <c r="I2" t="str">
+        <v>0</v>
+      </c>
+      <c r="J2" t="str">
+        <v>0</v>
+      </c>
+      <c r="K2" t="str">
+        <v>0.00</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v xml:space="preserve"> Nov 6 2020</v>
+      </c>
+      <c r="B3" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Sunrisers won by 6 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="D3" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="F3" t="str">
+        <v xml:space="preserve">Washington Sundar </v>
+      </c>
+      <c r="G3" t="str">
+        <v>5</v>
+      </c>
+      <c r="H3" t="str">
+        <v>6</v>
+      </c>
+      <c r="I3" t="str">
+        <v>0</v>
+      </c>
+      <c r="J3" t="str">
+        <v>0</v>
+      </c>
+      <c r="K3" t="str">
+        <v>83.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v xml:space="preserve"> Oct 15 2020</v>
+      </c>
+      <c r="B4" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Kings XI won by 8 wickets</v>
+      </c>
+      <c r="D4" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="E4" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="F4" t="str">
+        <v xml:space="preserve">Washington Sundar </v>
+      </c>
+      <c r="G4" t="str">
+        <v>13</v>
+      </c>
+      <c r="H4" t="str">
+        <v>14</v>
+      </c>
+      <c r="I4" t="str">
+        <v>1</v>
+      </c>
+      <c r="J4" t="str">
+        <v>0</v>
+      </c>
+      <c r="K4" t="str">
+        <v>92.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v xml:space="preserve"> Oct 25 2020</v>
+      </c>
+      <c r="B5" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Super Kings won by 8 wickets (with 8 balls remaining)</v>
+      </c>
+      <c r="D5" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="F5" t="str">
+        <v xml:space="preserve">Washington Sundar </v>
+      </c>
+      <c r="G5" t="str">
+        <v>5</v>
+      </c>
+      <c r="H5" t="str">
+        <v>2</v>
+      </c>
+      <c r="I5" t="str">
+        <v>1</v>
+      </c>
+      <c r="J5" t="str">
+        <v>0</v>
+      </c>
+      <c r="K5" t="str">
+        <v>250.00</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v xml:space="preserve"> Sep 24 2020</v>
+      </c>
+      <c r="B6" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C6" t="str">
+        <v>Kings XI won by 97 runs</v>
+      </c>
+      <c r="D6" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Kings XI Punjab</v>
+      </c>
+      <c r="F6" t="str">
+        <v xml:space="preserve">Washington Sundar </v>
+      </c>
+      <c r="G6" t="str">
+        <v>30</v>
+      </c>
+      <c r="H6" t="str">
+        <v>27</v>
+      </c>
+      <c r="I6" t="str">
+        <v>2</v>
+      </c>
+      <c r="J6" t="str">
+        <v>1</v>
+      </c>
+      <c r="K6" t="str">
+        <v>111.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v xml:space="preserve"> Oct 31 2020</v>
+      </c>
+      <c r="B7" t="str">
+        <v xml:space="preserve"> Sharjah</v>
+      </c>
+      <c r="C7" t="str">
+        <v>Sunrisers won by 5 wickets (with 35 balls remaining)</v>
+      </c>
+      <c r="D7" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="E7" t="str">
+        <v>Sunrisers Hyderabad</v>
+      </c>
+      <c r="F7" t="str">
+        <v xml:space="preserve">Washington Sundar </v>
+      </c>
+      <c r="G7" t="str">
+        <v>21</v>
+      </c>
+      <c r="H7" t="str">
+        <v>18</v>
+      </c>
+      <c r="I7" t="str">
+        <v>2</v>
+      </c>
+      <c r="J7" t="str">
+        <v>0</v>
+      </c>
+      <c r="K7" t="str">
+        <v>116.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v xml:space="preserve"> Oct 28 2020</v>
+      </c>
+      <c r="B8" t="str">
+        <v xml:space="preserve"> Abu Dhabi</v>
+      </c>
+      <c r="C8" t="str">
+        <v>Mumbai won by 5 wickets (with 5 balls remaining)</v>
+      </c>
+      <c r="D8" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="E8" t="str">
+        <v>Mumbai Indians</v>
+      </c>
+      <c r="F8" t="str">
+        <v xml:space="preserve">Washington Sundar </v>
+      </c>
+      <c r="G8" t="str">
+        <v>10</v>
+      </c>
+      <c r="H8" t="str">
+        <v>6</v>
+      </c>
+      <c r="I8" t="str">
+        <v>1</v>
+      </c>
+      <c r="J8" t="str">
+        <v>0</v>
+      </c>
+      <c r="K8" t="str">
+        <v>166.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
         <v xml:space="preserve"> Oct 10 2020</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B9" t="str">
         <v xml:space="preserve"> Dubai (DSC)</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C9" t="str">
         <v>RCB won by 37 runs</v>
       </c>
-      <c r="D2" t="str">
-        <v>Royal Challengers Bangalore</v>
-      </c>
-      <c r="E2" t="str">
+      <c r="D9" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="E9" t="str">
         <v>Chennai Super Kings</v>
       </c>
-      <c r="F2" t="str">
-        <v xml:space="preserve">Washington Sundar </v>
-      </c>
-      <c r="G2" t="str">
+      <c r="F9" t="str">
+        <v xml:space="preserve">Washington Sundar </v>
+      </c>
+      <c r="G9" t="str">
         <v>10</v>
       </c>
-      <c r="H2" t="str">
+      <c r="H9" t="str">
         <v>10</v>
       </c>
-      <c r="I2" t="str">
-        <v>0</v>
-      </c>
-      <c r="J2" t="str">
+      <c r="I9" t="str">
+        <v>0</v>
+      </c>
+      <c r="J9" t="str">
         <v>1</v>
       </c>
-      <c r="K2" t="str">
+      <c r="K9" t="str">
         <v>100.00</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v xml:space="preserve"> Oct 5 2020</v>
+      </c>
+      <c r="B10" t="str">
+        <v xml:space="preserve"> Dubai (DSC)</v>
+      </c>
+      <c r="C10" t="str">
+        <v>Capitals won by 59 runs</v>
+      </c>
+      <c r="D10" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="E10" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="F10" t="str">
+        <v xml:space="preserve">Washington Sundar </v>
+      </c>
+      <c r="G10" t="str">
+        <v>17</v>
+      </c>
+      <c r="H10" t="str">
+        <v>11</v>
+      </c>
+      <c r="I10" t="str">
+        <v>3</v>
+      </c>
+      <c r="J10" t="str">
+        <v>0</v>
+      </c>
+      <c r="K10" t="str">
+        <v>154.54</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K10"/>
   </ignoredErrors>
 </worksheet>
 </file>